--- a/src/test/resources/exportTemplateCrossDeptToMonth.xlsx
+++ b/src/test/resources/exportTemplateCrossDeptToMonth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210" tabRatio="552"/>
+    <workbookView windowWidth="19905" windowHeight="7485" tabRatio="552"/>
   </bookViews>
   <sheets>
     <sheet name="月报公式表" sheetId="3" r:id="rId1"/>
@@ -694,17 +694,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -715,16 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,6 +716,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,15 +736,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,8 +775,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -799,41 +821,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -920,7 +920,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,7 +950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +974,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1016,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,67 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,43 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,17 +1325,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,6 +1351,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,17 +1388,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,27 +1408,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1430,10 +1430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,133 +1442,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2254,11 +2254,11 @@
   <sheetPr/>
   <dimension ref="A1:BE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5583333333333" style="2" customWidth="1"/>
     <col min="2" max="3" width="7.58333333333333" style="2" customWidth="1"/>
@@ -2300,7 +2300,7 @@
     <col min="58" max="16384" width="9.10833333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" spans="1:57">
+    <row r="1" ht="20.25" spans="1:57">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="BD2" s="80"/>
       <c r="BE2" s="80"/>
     </row>
-    <row r="3" ht="14.75" spans="1:57">
+    <row r="3" ht="15" spans="1:57">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>4</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW7" s="85">
         <v>0</v>
@@ -3044,15 +3044,15 @@
         <v>0</v>
       </c>
       <c r="AV8" s="87">
-        <f t="shared" ref="AV8:BE8" si="1">AV7</f>
-        <v>0</v>
+        <f>AV7</f>
+        <v>10</v>
       </c>
       <c r="AW8" s="87">
-        <f t="shared" si="1"/>
+        <f>AW7</f>
         <v>0</v>
       </c>
       <c r="AX8" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AV8:BE8" si="1">AX7</f>
         <v>0</v>
       </c>
       <c r="AY8" s="87">
@@ -3526,7 +3526,7 @@
       <c r="AS13" s="89"/>
       <c r="AT13" s="89"/>
     </row>
-    <row r="14" ht="14.75" spans="1:46">
+    <row r="14" ht="15" spans="1:46">
       <c r="A14" s="9"/>
       <c r="B14" s="38" t="s">
         <v>42</v>

--- a/src/test/resources/exportTemplateCrossDeptToMonth.xlsx
+++ b/src/test/resources/exportTemplateCrossDeptToMonth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="7485" tabRatio="552"/>
+    <workbookView windowWidth="19200" windowHeight="7210" tabRatio="552"/>
   </bookViews>
   <sheets>
     <sheet name="月报公式表" sheetId="3" r:id="rId1"/>
@@ -29,19 +29,12 @@
   </si>
   <si>
     <r>
+      <t>YYYY年</t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YYYY年</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
@@ -51,7 +44,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -61,7 +54,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
@@ -71,7 +64,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -81,7 +74,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -91,18 +84,12 @@
   </si>
   <si>
     <r>
+      <t>YYYY</t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="CorpoS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YYYY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -111,7 +98,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
       </rPr>
@@ -120,7 +107,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -129,7 +116,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
       </rPr>
@@ -138,7 +125,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -147,7 +134,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
@@ -156,7 +143,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -165,7 +152,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -175,7 +162,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -185,19 +172,12 @@
   </si>
   <si>
     <r>
+      <t>YYYY年MM月</t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YYYY年MM月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
@@ -207,7 +187,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -217,7 +197,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -227,7 +207,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -237,7 +217,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -273,8 +253,7 @@
     <t>散客客流+线索</t>
   </si>
   <si>
-    <t>进店
-线索数</t>
+    <t>进店线索数</t>
   </si>
   <si>
     <t>报价数</t>
@@ -377,18 +356,12 @@
   </si>
   <si>
     <r>
+      <t>YYYY</t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="CorpoS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YYYY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -397,7 +370,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
       </rPr>
@@ -406,7 +379,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -415,7 +388,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
       </rPr>
@@ -424,7 +397,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
@@ -433,7 +406,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -443,18 +416,12 @@
   </si>
   <si>
     <r>
+      <t>YYYY</t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="CorpoS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>YYYY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -463,7 +430,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
       </rPr>
@@ -472,7 +439,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -481,7 +448,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="CorpoS"/>
         <charset val="134"/>
       </rPr>
@@ -490,7 +457,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -499,7 +466,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
       </rPr>
@@ -508,7 +475,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <charset val="134"/>
@@ -518,7 +485,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -561,8 +528,7 @@
     <t>报价订单率</t>
   </si>
   <si>
-    <t>订单
-成交率</t>
+    <t>订单成交率</t>
   </si>
   <si>
     <t>进店线索订单率</t>
@@ -576,12 +542,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,9 +578,16 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="CorpoS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -655,6 +628,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="CorpoS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="CorpoS"/>
       <charset val="134"/>
@@ -673,6 +652,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -680,7 +674,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="CorpoS"/>
       <charset val="134"/>
@@ -700,6 +694,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -707,22 +716,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +732,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -744,114 +831,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="新細明體"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -920,7 +920,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,19 +1010,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,25 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,19 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,90 +1088,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1154,126 +1154,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1325,17 +1209,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,25 +1236,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,26 +1255,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,6 +1273,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1430,10 +1314,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,141 +1326,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1617,312 +1505,266 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2254,1640 +2096,1669 @@
   <sheetPr/>
   <dimension ref="A1:BE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AW8" sqref="AW8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3:BE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.5583333333333" style="2" customWidth="1"/>
-    <col min="2" max="3" width="7.58333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.08333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.58333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.44166666666667" style="2" customWidth="1"/>
-    <col min="10" max="11" width="5.33333333333333" style="2" customWidth="1"/>
-    <col min="12" max="13" width="3.88333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.21666666666667" style="2" customWidth="1"/>
-    <col min="15" max="16" width="4.88333333333333" style="2" customWidth="1"/>
-    <col min="17" max="21" width="3.88333333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.10833333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.88333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="5.44166666666667" style="2" customWidth="1"/>
-    <col min="25" max="25" width="3.88333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="6.33333333333333" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6.10833333333333" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.44166666666667" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.55833333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="6.33333333333333" style="2" customWidth="1"/>
-    <col min="31" max="31" width="6" style="2" customWidth="1"/>
-    <col min="32" max="33" width="5.44166666666667" style="2" customWidth="1"/>
-    <col min="34" max="34" width="3.88333333333333" style="2" customWidth="1"/>
-    <col min="35" max="35" width="7" style="2" customWidth="1"/>
-    <col min="36" max="36" width="6.44166666666667" style="2" customWidth="1"/>
-    <col min="37" max="38" width="6.33333333333333" style="2" customWidth="1"/>
-    <col min="39" max="39" width="6.44166666666667" style="2" customWidth="1"/>
-    <col min="40" max="43" width="5.44166666666667" style="2" customWidth="1"/>
-    <col min="44" max="44" width="6.33333333333333" style="2" customWidth="1"/>
-    <col min="45" max="45" width="8" style="2" customWidth="1"/>
-    <col min="46" max="46" width="6.21666666666667" style="2" customWidth="1"/>
-    <col min="47" max="47" width="9.10833333333333" style="2"/>
-    <col min="48" max="52" width="9.10833333333333" style="3"/>
-    <col min="53" max="53" width="11.25" style="3" customWidth="1"/>
-    <col min="54" max="57" width="9.10833333333333" style="3"/>
-    <col min="58" max="16384" width="9.10833333333333" style="2"/>
+    <col min="1" max="1" width="15.5583333333333" style="3" customWidth="1"/>
+    <col min="2" max="3" width="7.58333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.83333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.08333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.33333333333333" style="3" customWidth="1"/>
+    <col min="9" max="10" width="5.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.33333333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.91666666666667" style="3" customWidth="1"/>
+    <col min="14" max="14" width="6.83333333333333" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.91666666666667" style="3" customWidth="1"/>
+    <col min="16" max="16" width="5.58333333333333" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="5.91666666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="3" customWidth="1"/>
+    <col min="20" max="20" width="5.41666666666667" style="3" customWidth="1"/>
+    <col min="21" max="21" width="5.83333333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.58333333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="5.66666666666667" style="3" customWidth="1"/>
+    <col min="24" max="24" width="5.44166666666667" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6" style="3" customWidth="1"/>
+    <col min="26" max="26" width="6.33333333333333" style="3" customWidth="1"/>
+    <col min="27" max="27" width="6.10833333333333" style="3" customWidth="1"/>
+    <col min="28" max="28" width="5.44166666666667" style="3" customWidth="1"/>
+    <col min="29" max="29" width="5.55833333333333" style="3" customWidth="1"/>
+    <col min="30" max="30" width="6.33333333333333" style="3" customWidth="1"/>
+    <col min="31" max="31" width="6" style="3" customWidth="1"/>
+    <col min="32" max="33" width="5.44166666666667" style="3" customWidth="1"/>
+    <col min="34" max="34" width="3.88333333333333" style="3" customWidth="1"/>
+    <col min="35" max="35" width="11.25" style="3" customWidth="1"/>
+    <col min="36" max="36" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="37" max="37" width="12" style="3" customWidth="1"/>
+    <col min="38" max="38" width="11.1666666666667" style="3" customWidth="1"/>
+    <col min="39" max="39" width="9.66666666666667" style="3" customWidth="1"/>
+    <col min="40" max="40" width="10" style="3" customWidth="1"/>
+    <col min="41" max="41" width="10.4166666666667" style="3" customWidth="1"/>
+    <col min="42" max="42" width="9.75" style="3" customWidth="1"/>
+    <col min="43" max="43" width="11.3333333333333" style="3" customWidth="1"/>
+    <col min="44" max="44" width="10.1666666666667" style="3" customWidth="1"/>
+    <col min="45" max="45" width="8" style="3" customWidth="1"/>
+    <col min="46" max="46" width="7.91666666666667" style="3" customWidth="1"/>
+    <col min="47" max="47" width="9.10833333333333" style="3"/>
+    <col min="48" max="51" width="9.10833333333333" style="4"/>
+    <col min="52" max="52" width="13.8333333333333" style="4" customWidth="1"/>
+    <col min="53" max="53" width="13.75" style="4" customWidth="1"/>
+    <col min="54" max="57" width="9.10833333333333" style="4"/>
+    <col min="58" max="16384" width="9.10833333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:57">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
+    <row r="1" ht="20" spans="1:57">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:57">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="80"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="80"/>
-      <c r="BE2" s="80"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
     </row>
-    <row r="3" ht="15" spans="1:57">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:57">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="81"/>
-      <c r="AV3" s="82" t="s">
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="71"/>
+      <c r="AV3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AW3" s="91"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="91"/>
-      <c r="BA3" s="91"/>
-      <c r="BB3" s="91"/>
-      <c r="BC3" s="91"/>
-      <c r="BD3" s="91"/>
-      <c r="BE3" s="95"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="80"/>
+      <c r="BC3" s="80"/>
+      <c r="BD3" s="80"/>
+      <c r="BE3" s="83"/>
     </row>
     <row r="4" ht="26.25" customHeight="1" spans="1:57">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="51" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="13" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="13" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="13" t="s">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AE4" s="14"/>
       <c r="AF4" s="14"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="69" t="s">
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69" t="s">
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69" t="s">
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69" t="s">
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69" t="s">
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69" t="s">
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="69"/>
-      <c r="AV4" s="83" t="s">
+      <c r="AT4" s="56"/>
+      <c r="AV4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="83" t="s">
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="83" t="s">
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="83" t="s">
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="83" t="s">
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BE4" s="69"/>
+      <c r="BE4" s="56"/>
     </row>
     <row r="5" ht="33.75" customHeight="1" spans="1:57">
-      <c r="A5" s="12"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="18" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="21" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="18" t="s">
+      <c r="U5" s="17"/>
+      <c r="V5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19" t="s">
+      <c r="W5" s="16"/>
+      <c r="X5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="21" t="s">
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19" t="s">
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="18" t="s">
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19" t="s">
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="69" t="s">
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AJ5" s="69" t="s">
+      <c r="AJ5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AK5" s="69" t="s">
+      <c r="AK5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AL5" s="69" t="s">
+      <c r="AL5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="69" t="s">
+      <c r="AM5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AN5" s="69" t="s">
+      <c r="AN5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AO5" s="69" t="s">
+      <c r="AO5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AP5" s="69" t="s">
+      <c r="AP5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AQ5" s="69" t="s">
+      <c r="AQ5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AR5" s="69" t="s">
+      <c r="AR5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="69" t="s">
+      <c r="AS5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AT5" s="69" t="s">
+      <c r="AT5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AV5" s="69" t="s">
+      <c r="AV5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AW5" s="69" t="s">
+      <c r="AW5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AX5" s="69" t="s">
+      <c r="AX5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AY5" s="69" t="s">
+      <c r="AY5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AZ5" s="69" t="s">
+      <c r="AZ5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="BA5" s="69" t="s">
+      <c r="BA5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="BB5" s="69" t="s">
+      <c r="BB5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="BC5" s="69" t="s">
+      <c r="BC5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="BD5" s="69" t="s">
+      <c r="BD5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="BE5" s="69" t="s">
+      <c r="BE5" s="56" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" ht="29.4" customHeight="1" spans="1:57">
-      <c r="A6" s="12"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="54" t="s">
+      <c r="U6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="22" t="s">
+      <c r="V6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="23" t="s">
+      <c r="W6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AA6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="23" t="s">
+      <c r="AB6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="54" t="s">
+      <c r="AC6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="22" t="s">
+      <c r="AD6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AE6" s="23" t="s">
+      <c r="AE6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="23" t="s">
+      <c r="AF6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AG6" s="24" t="s">
+      <c r="AG6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
     </row>
     <row r="7" spans="1:57">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="26">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
-      <c r="L7" s="26">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
-        <v>0</v>
-      </c>
-      <c r="N7" s="26">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>0</v>
-      </c>
-      <c r="R7" s="26">
-        <v>0</v>
-      </c>
-      <c r="S7" s="26">
-        <v>0</v>
-      </c>
-      <c r="T7" s="26">
-        <v>0</v>
-      </c>
-      <c r="U7" s="26">
-        <v>0</v>
-      </c>
-      <c r="V7" s="26">
-        <v>0</v>
-      </c>
-      <c r="W7" s="26">
-        <v>0</v>
-      </c>
-      <c r="X7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="72">
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="60">
         <f>B7+F7+J7+N7+R7+V7+Z7+AD7</f>
         <v>0</v>
       </c>
-      <c r="AJ7" s="72">
+      <c r="AJ7" s="60">
         <f>C7+G7+K7+O7+S7+W7+AA7+AE7</f>
         <v>0</v>
       </c>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="84">
+      <c r="AK7" s="61">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="73">
         <f ca="1">INDIRECT("AS"&amp;MATCH("销售专员",A:A,0))</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="84">
+      <c r="AT7" s="73">
         <f ca="1">INDIRECT("AT"&amp;MATCH("销售专员",A:A,0))</f>
         <v>0</v>
       </c>
-      <c r="AV7" s="85">
-        <v>10</v>
-      </c>
-      <c r="AW7" s="85">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="92">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="92">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="26">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="92">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="26">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="92">
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="60">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="60">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="62">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="62">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="62">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:57">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="29">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="64">
         <f t="shared" ref="AI8:AL8" si="0">B8+F8+J8+N8+R8+V8+Z8+AD8</f>
         <v>0</v>
       </c>
-      <c r="AJ8" s="29">
+      <c r="AJ8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="29">
+      <c r="AK8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="29">
+      <c r="AL8" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="29">
+      <c r="AM8" s="22">
         <f ca="1">SUM(INDIRECT("AM"&amp;MATCH("销售专员",A:A,0)+2):INDIRECT("AM"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="29">
+      <c r="AN8" s="22">
         <f ca="1">SUM(INDIRECT("AN"&amp;MATCH("销售专员",A:A,0)+2):INDIRECT("AN"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="29">
+      <c r="AO8" s="22">
         <f ca="1">SUM(INDIRECT("AO"&amp;MATCH("销售专员",A:A,0)+2):INDIRECT("AO"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AP8" s="29">
+      <c r="AP8" s="22">
         <f ca="1">SUM(INDIRECT("AP"&amp;MATCH("销售专员",A:A,0)+2):INDIRECT("AP"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AQ8" s="29">
+      <c r="AQ8" s="22">
         <f ca="1">SUM(INDIRECT("AQ"&amp;MATCH("销售专员",A:A,0)+2):INDIRECT("AQ"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="29">
+      <c r="AR8" s="22">
         <f ca="1">SUM(INDIRECT("AR"&amp;MATCH("销售专员",A:A,0)+2):INDIRECT("AR"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="86">
+      <c r="AS8" s="74">
         <f ca="1">INDIRECT("AS"&amp;MATCH("销售专员",A:A,0))</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="86">
+      <c r="AT8" s="74">
         <f ca="1">INDIRECT("AT"&amp;MATCH("销售专员",A:A,0))</f>
         <v>0</v>
       </c>
-      <c r="AV8" s="87">
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="75">
         <f>AV7</f>
-        <v>10</v>
-      </c>
-      <c r="AW8" s="87">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="75">
         <f>AW7</f>
         <v>0</v>
       </c>
-      <c r="AX8" s="87">
+      <c r="AX8" s="75">
         <f t="shared" ref="AV8:BE8" si="1">AX7</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="87">
+      <c r="AY8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AZ8" s="87">
+      <c r="AZ8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA8" s="87">
+      <c r="BA8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB8" s="87">
+      <c r="BB8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC8" s="87">
+      <c r="BC8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD8" s="87">
+      <c r="BD8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE8" s="87">
+      <c r="BE8" s="75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:57">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AV9" s="88"/>
-      <c r="AW9" s="94"/>
-      <c r="AX9" s="88"/>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="88"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="88"/>
-      <c r="BC9" s="88"/>
-      <c r="BD9" s="88"/>
-      <c r="BE9" s="88"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="82"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
     </row>
     <row r="10" spans="1:57">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AV10" s="88"/>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="88"/>
-      <c r="AY10" s="88"/>
-      <c r="AZ10" s="88"/>
-      <c r="BA10" s="88"/>
-      <c r="BB10" s="88"/>
-      <c r="BC10" s="88"/>
-      <c r="BD10" s="88"/>
-      <c r="BE10" s="88"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
     </row>
-    <row r="11" spans="1:57">
-      <c r="A11" s="32" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:57">
+      <c r="A11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="22">
         <f ca="1">SUM(INDIRECT("B"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("B"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="22">
         <f ca="1">SUM(INDIRECT("C"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("C"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="22">
         <f ca="1">SUM(INDIRECT("D"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("D"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="23">
         <f ca="1">SUM(INDIRECT("E"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("E"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="22">
         <f ca="1">SUM(INDIRECT("F"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("F"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="22">
         <f ca="1">SUM(INDIRECT("G"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("G"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <f ca="1">SUM(INDIRECT("H"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("H"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="22">
         <f ca="1">SUM(INDIRECT("I"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("I"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="22">
         <f ca="1">SUM(INDIRECT("J"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("J"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="22">
         <f ca="1">SUM(INDIRECT("K"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("K"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <f ca="1">SUM(INDIRECT("L"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("L"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="23">
         <f ca="1">SUM(INDIRECT("M"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("M"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="22">
         <f ca="1">SUM(INDIRECT("N"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("N"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="22">
         <f ca="1">SUM(INDIRECT("O"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("O"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="22">
         <f ca="1">SUM(INDIRECT("P"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("P"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="23">
         <f ca="1">SUM(INDIRECT("Q"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("Q"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="22">
         <f ca="1">SUM(INDIRECT("R"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("R"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="22">
         <f ca="1">SUM(INDIRECT("S"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("S"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="T11" s="28">
+      <c r="T11" s="22">
         <f ca="1">SUM(INDIRECT("T"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("T"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="U11" s="57">
+      <c r="U11" s="23">
         <f ca="1">SUM(INDIRECT("U"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("U"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="22">
         <f ca="1">SUM(INDIRECT("V"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("V"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="W11" s="28">
+      <c r="W11" s="22">
         <f ca="1">SUM(INDIRECT("W"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("W"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="X11" s="28">
+      <c r="X11" s="22">
         <f ca="1">SUM(INDIRECT("X"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("X"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="23">
         <f ca="1">SUM(INDIRECT("Y"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("Y"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="31">
+      <c r="Z11" s="22">
         <f ca="1">SUM(INDIRECT("Z"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("Z"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="28">
+      <c r="AA11" s="22">
         <f ca="1">SUM(INDIRECT("AA"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AA"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="28">
+      <c r="AB11" s="22">
         <f ca="1">SUM(INDIRECT("AB"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AB"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="28">
+      <c r="AC11" s="23">
         <f ca="1">SUM(INDIRECT("AC"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AC"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="28">
+      <c r="AD11" s="22">
         <f ca="1">SUM(INDIRECT("AD"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AD"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="28">
+      <c r="AE11" s="22">
         <f ca="1">SUM(INDIRECT("AE"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AE"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="28">
+      <c r="AF11" s="22">
         <f ca="1">SUM(INDIRECT("AF"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AF"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AG11" s="22">
         <f ca="1">SUM(INDIRECT("AG"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AG"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="28">
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="22">
         <f ca="1">SUM(INDIRECT("AI"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AI"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="28">
+      <c r="AJ11" s="22">
         <f ca="1">SUM(INDIRECT("AJ"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AJ"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="28">
+      <c r="AK11" s="22">
         <f ca="1">SUM(INDIRECT("AK"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AK"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="28">
+      <c r="AL11" s="22">
         <f ca="1">SUM(INDIRECT("AL"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AL"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="28">
+      <c r="AM11" s="22">
         <f ca="1">SUM(INDIRECT("AM"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AM"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="28">
+      <c r="AN11" s="22">
         <f ca="1">SUM(INDIRECT("AN"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AN"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AO11" s="28">
+      <c r="AO11" s="22">
         <f ca="1">SUM(INDIRECT("AO"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AO"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AP11" s="28">
+      <c r="AP11" s="22">
         <f ca="1">SUM(INDIRECT("AP"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AP"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="28">
+      <c r="AQ11" s="22">
         <f ca="1">SUM(INDIRECT("AQ"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AQ"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AR11" s="28">
+      <c r="AR11" s="22">
         <f ca="1">SUM(INDIRECT("AR"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AR"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AS11" s="28">
+      <c r="AS11" s="22">
         <f ca="1">SUM(INDIRECT("AS"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AS"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="28">
+      <c r="AT11" s="22">
         <f ca="1">SUM(INDIRECT("AT"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AT"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="87">
+      <c r="AV11" s="75">
         <f ca="1">SUM(INDIRECT("AV"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AV"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="87">
+      <c r="AW11" s="75">
         <f ca="1">SUM(INDIRECT("AW"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AW"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AX11" s="87">
+      <c r="AX11" s="75">
         <f ca="1">SUM(INDIRECT("AX"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AX"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="87">
+      <c r="AY11" s="75">
         <f ca="1">SUM(INDIRECT("AY"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AY"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="AZ11" s="87">
+      <c r="AZ11" s="75">
         <f ca="1">SUM(INDIRECT("AZ"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("AZ"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="BA11" s="87">
+      <c r="BA11" s="75">
         <f ca="1">SUM(INDIRECT("BA"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("BA"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="BB11" s="87">
+      <c r="BB11" s="75">
         <f ca="1">SUM(INDIRECT("BB"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("BB"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="87">
+      <c r="BC11" s="75">
         <f ca="1">SUM(INDIRECT("BC"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("BC"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="BD11" s="87">
+      <c r="BD11" s="75">
         <f ca="1">SUM(INDIRECT("BD"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("BD"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
-      <c r="BE11" s="87">
+      <c r="BE11" s="75">
         <f ca="1">SUM(INDIRECT("BE"&amp;MATCH("销售专员",A:A,0)+1):INDIRECT("BE"&amp;MATCH("红色代表小于目标",A:A,0)-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="74"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="74"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="65"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
     </row>
-    <row r="14" ht="15" spans="1:46">
-      <c r="A14" s="9"/>
-      <c r="B14" s="38" t="s">
+    <row r="14" ht="21" customHeight="1" spans="1:46">
+      <c r="A14" s="10"/>
+      <c r="B14" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="76" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="90"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="79"/>
     </row>
     <row r="15" ht="42" customHeight="1" spans="1:46">
-      <c r="A15" s="12"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="58" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="39" t="s">
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="63" t="s">
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="39" t="s">
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="63" t="s">
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="39" t="s">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="69" t="s">
+      <c r="AE15" s="33"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69" t="s">
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69" t="s">
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69" t="s">
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69" t="s">
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="83" t="s">
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="AT15" s="69"/>
+      <c r="AT15" s="56"/>
     </row>
     <row r="16" ht="30.75" customHeight="1" spans="1:46">
-      <c r="A16" s="12"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="60" t="s">
+      <c r="I16" s="35"/>
+      <c r="J16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="43" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44" t="s">
+      <c r="O16" s="35"/>
+      <c r="P16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="60" t="s">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44" t="s">
+      <c r="S16" s="35"/>
+      <c r="T16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="45"/>
-      <c r="V16" s="43" t="s">
+      <c r="U16" s="36"/>
+      <c r="V16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44" t="s">
+      <c r="W16" s="35"/>
+      <c r="X16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="60" t="s">
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44" t="s">
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="43" t="s">
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44" t="s">
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="69" t="s">
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AJ16" s="69" t="s">
+      <c r="AJ16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AK16" s="69" t="s">
+      <c r="AK16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AL16" s="69" t="s">
+      <c r="AL16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AM16" s="69" t="s">
+      <c r="AM16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AN16" s="69" t="s">
+      <c r="AN16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AO16" s="69" t="s">
+      <c r="AO16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AP16" s="69" t="s">
+      <c r="AP16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AQ16" s="69" t="s">
+      <c r="AQ16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AR16" s="69" t="s">
+      <c r="AR16" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AS16" s="69" t="s">
+      <c r="AS16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AT16" s="69" t="s">
+      <c r="AT16" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
-      <c r="A17" s="46" t="s">
+    <row r="17" s="2" customFormat="1" spans="1:46">
+      <c r="A17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="47" t="str">
+      <c r="B17" s="38" t="str">
         <f>IFERROR(D8/B8,"")</f>
         <v/>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49" t="str">
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="str">
         <f>IFERROR(E8/C8,"")</f>
         <v/>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49" t="str">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39" t="str">
         <f>IFERROR(H8/F8,"")</f>
         <v/>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48" t="str">
+      <c r="G17" s="38"/>
+      <c r="H17" s="38" t="str">
         <f>IFERROR(I8/G8,"")</f>
         <v/>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49" t="str">
+      <c r="I17" s="38"/>
+      <c r="J17" s="39" t="str">
         <f>IFERROR(L8/J8,"")</f>
         <v/>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48" t="str">
+      <c r="K17" s="38"/>
+      <c r="L17" s="38" t="str">
         <f>IFERROR(M8/K8,"")</f>
         <v/>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="47" t="str">
+      <c r="M17" s="51"/>
+      <c r="N17" s="38" t="str">
         <f>IFERROR(P8/N8,"")</f>
         <v/>
       </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48" t="str">
+      <c r="O17" s="38"/>
+      <c r="P17" s="38" t="str">
         <f>IFERROR(Q8/O8,"")</f>
         <v/>
       </c>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="49" t="str">
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39" t="str">
         <f>IFERROR(T8/R8,"")</f>
         <v/>
       </c>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48" t="str">
+      <c r="S17" s="38"/>
+      <c r="T17" s="38" t="str">
         <f>IFERROR(U8/S8,"")</f>
         <v/>
       </c>
-      <c r="U17" s="61"/>
-      <c r="V17" s="47" t="str">
+      <c r="U17" s="51"/>
+      <c r="V17" s="38" t="str">
         <f>IFERROR(X8/V8,"")</f>
         <v/>
       </c>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48" t="str">
+      <c r="W17" s="38"/>
+      <c r="X17" s="38" t="str">
         <f>IFERROR(Y8/W8,"")</f>
         <v/>
       </c>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="49" t="str">
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="39" t="str">
         <f>IFERROR(AB8/Z8,"")</f>
         <v/>
       </c>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48" t="str">
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38" t="str">
         <f>IFERROR(AC8/AA8,"")</f>
         <v/>
       </c>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="47" t="str">
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="38" t="str">
         <f>IFERROR(AF8/AD8,"")</f>
         <v/>
       </c>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48" t="str">
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38" t="str">
         <f>IFERROR(AG8/AE8,"")</f>
         <v/>
       </c>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="79" t="str">
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="38" t="str">
         <f t="shared" ref="AI17:AP17" si="2">IFERROR(AK8/AI8,"")</f>
         <v/>
       </c>
-      <c r="AJ17" s="79" t="str">
+      <c r="AJ17" s="38" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AK17" s="79" t="str">
+      <c r="AK17" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL17" s="79" t="str">
+      <c r="AL17" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AM17" s="79" t="str">
+      <c r="AM17" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AN17" s="79" t="str">
+      <c r="AN17" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AO17" s="79" t="str">
+      <c r="AO17" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AP17" s="79" t="str">
+      <c r="AP17" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ17" s="79" t="str">
+      <c r="AQ17" s="38" t="str">
         <f ca="1">IFERROR(AO8/AK8,"")</f>
         <v/>
       </c>
-      <c r="AR17" s="79" t="str">
+      <c r="AR17" s="38" t="str">
         <f ca="1">IFERROR(AP8/AL8,"")</f>
         <v/>
       </c>
-      <c r="AS17" s="79" t="str">
+      <c r="AS17" s="38" t="str">
         <f ca="1">IFERROR(INDIRECT("AS"&amp;MATCH("销售专员",A:A,0))/INDIRECT("AK"&amp;MATCH("销售专员",A:A,0)),"")</f>
         <v/>
       </c>
-      <c r="AT17" s="79" t="str">
+      <c r="AT17" s="38" t="str">
         <f ca="1">IFERROR(INDIRECT("AT"&amp;MATCH("销售专员",A:A,0))/INDIRECT("AL"&amp;MATCH("销售专员",A:A,0)),"")</f>
         <v/>
       </c>
@@ -4046,5 +3917,8 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="AT7:AT8 AS7:AS8 AI7:AJ7" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>